--- a/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5564B1A0-59B1-4ECD-8CC2-D58C8817B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D6CE857-5608-43DA-B58F-821DBF381081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CAD96FFA-777B-4F18-8AC8-D33D5C710E39}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F58DF0F-7D58-409F-B997-D09D8D8EA2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>58,69%</t>
   </si>
   <si>
-    <t>17,66%</t>
+    <t>17,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,7 +115,7 @@
     <t>41,31%</t>
   </si>
   <si>
-    <t>82,34%</t>
+    <t>82,94%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -148,301 +148,307 @@
     <t>94,5%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
     <t>93,64%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,35%</t>
+    <t>92,85%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,46%</t>
+    <t>96,23%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -451,40 +457,37 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,65%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,63%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -493,9 +496,6 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
     <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
   </si>
   <si>
@@ -541,13 +541,13 @@
     <t>98,63%</t>
   </si>
   <si>
-    <t>93,04%</t>
+    <t>92,9%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>93,37%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -556,19 +556,19 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>6,96%</t>
+    <t>7,1%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>82,38%</t>
+    <t>85,62%</t>
   </si>
   <si>
     <t>96,31%</t>
@@ -580,16 +580,16 @@
     <t>96,37%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>17,62%</t>
+    <t>14,38%</t>
   </si>
   <si>
     <t>3,69%</t>
@@ -601,112 +601,112 @@
     <t>3,63%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>92,21%</t>
+    <t>92,49%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>7,51%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322F9E44-9E2A-4764-BEA5-E2340729745F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD889AF-41F8-4233-AA55-A1AEEA615F72}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2181,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C75564-E590-4F3B-93CE-593FF5B09E4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91A0688-5D93-406E-BA37-DBEE693FCEF3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2803,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>21</v>
@@ -2842,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2928,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>21</v>
@@ -2940,10 +2940,10 @@
         <v>73371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2955,10 +2955,10 @@
         <v>106753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -2982,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2991,13 +2991,13 @@
         <v>969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3006,13 +3006,13 @@
         <v>969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3083,7 @@
         <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3095,10 +3095,10 @@
         <v>248728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3110,13 +3110,13 @@
         <v>360623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3137,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3146,13 +3146,13 @@
         <v>1904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3161,13 +3161,13 @@
         <v>2928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6D5270-52AA-4B8A-8D95-12D746FC3B65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68D615D-D168-4A81-BA58-0FF2BF059AD7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4170,7 +4170,7 @@
         <v>346</v>
       </c>
       <c r="N19" s="7">
-        <v>375250</v>
+        <v>375251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>211</v>
@@ -4272,7 +4272,7 @@
         <v>356</v>
       </c>
       <c r="N21" s="7">
-        <v>385724</v>
+        <v>385725</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D6CE857-5608-43DA-B58F-821DBF381081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E6CF43-B94B-4E45-97CC-99C3DB3607A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F58DF0F-7D58-409F-B997-D09D8D8EA2AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40B652BF-FF8C-43DD-A560-09856F53D3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="213">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -94,7 +94,7 @@
     <t>58,69%</t>
   </si>
   <si>
-    <t>17,06%</t>
+    <t>17,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,10 +115,10 @@
     <t>41,31%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -139,7 +139,7 @@
     <t>5,16%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -148,19 +148,16 @@
     <t>94,5%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>89,56%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -169,64 +166,55 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>63,08%</t>
+    <t>61,58%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>86,52%</t>
+    <t>88,12%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>88,97%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>36,92%</t>
+    <t>38,42%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>11,88%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>11,03%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -235,439 +223,430 @@
     <t>87,58%</t>
   </si>
   <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>90,05%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -676,19 +655,13 @@
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
     <t>98,67%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -697,16 +670,13 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
     <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD889AF-41F8-4233-AA55-A1AEEA615F72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964413FE-6143-4666-B409-323B6CEEA848}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1588,7 +1558,7 @@
         <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1618,13 +1588,13 @@
         <v>3030</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1633,13 +1603,13 @@
         <v>3030</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,7 +1665,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1707,10 +1677,10 @@
         <v>12218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -1722,10 +1692,10 @@
         <v>43987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -1737,13 +1707,13 @@
         <v>56205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1728,13 @@
         <v>986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1773,13 +1743,13 @@
         <v>1783</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1788,13 +1758,13 @@
         <v>2769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,7 +1820,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1862,13 +1832,13 @@
         <v>23581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -1877,13 +1847,13 @@
         <v>51974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -1892,13 +1862,13 @@
         <v>75555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1883,13 @@
         <v>3343</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1928,13 +1898,13 @@
         <v>3670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1943,13 +1913,13 @@
         <v>7013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +1987,13 @@
         <v>75190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -2032,13 +2002,13 @@
         <v>169851</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -2047,13 +2017,13 @@
         <v>245042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2038,13 @@
         <v>5383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2083,13 +2053,13 @@
         <v>9351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2098,13 +2068,13 @@
         <v>14733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2130,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91A0688-5D93-406E-BA37-DBEE693FCEF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60D4E87-7456-4549-AEDB-F42344418B1D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,7 +2168,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2308,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -2323,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>21</v>
@@ -2338,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>21</v>
@@ -2362,7 +2332,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2377,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2392,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -2475,10 +2445,10 @@
         <v>37915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2490,10 +2460,10 @@
         <v>57599</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2517,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2526,13 +2496,13 @@
         <v>935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2541,13 +2511,13 @@
         <v>935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,10 +2585,10 @@
         <v>29203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2633,7 +2603,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>21</v>
@@ -2645,10 +2615,10 @@
         <v>111067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2666,13 +2636,13 @@
         <v>1024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2687,7 +2657,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2696,13 +2666,13 @@
         <v>1024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2728,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2788,7 +2758,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>21</v>
@@ -2803,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>21</v>
@@ -2842,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2857,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,7 +2883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2928,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>21</v>
@@ -2940,10 +2910,10 @@
         <v>73371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2955,10 +2925,10 @@
         <v>106753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -2982,7 +2952,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2991,13 +2961,13 @@
         <v>969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3006,13 +2976,13 @@
         <v>969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,10 +3050,10 @@
         <v>111894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3095,10 +3065,10 @@
         <v>248728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3110,13 +3080,13 @@
         <v>360623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3101,13 @@
         <v>1024</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3146,13 +3116,13 @@
         <v>1904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3161,13 +3131,13 @@
         <v>2928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3193,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68D615D-D168-4A81-BA58-0FF2BF059AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3FB151-57AD-4ADE-812B-D647212CBA3C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3261,7 +3231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3371,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -3386,7 +3356,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>21</v>
@@ -3401,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>21</v>
@@ -3425,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3440,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3455,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3496,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -3541,7 +3511,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -3556,7 +3526,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>21</v>
@@ -3580,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3595,7 +3565,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3610,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3651,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -3693,10 +3663,10 @@
         <v>68603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3708,10 +3678,10 @@
         <v>100041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3735,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3744,13 +3714,13 @@
         <v>954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3759,13 +3729,13 @@
         <v>954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3791,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3833,10 +3803,10 @@
         <v>28759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3848,10 +3818,10 @@
         <v>54742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3863,13 +3833,13 @@
         <v>83502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3854,13 @@
         <v>1047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3899,13 +3869,13 @@
         <v>2095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3914,13 +3884,13 @@
         <v>3142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,7 +3946,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3988,13 +3958,13 @@
         <v>36292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -4003,10 +3973,10 @@
         <v>88918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4018,13 +3988,13 @@
         <v>125210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4009,13 @@
         <v>4170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4054,13 +4024,13 @@
         <v>2207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4069,13 +4039,13 @@
         <v>6377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4113,13 @@
         <v>111780</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -4158,13 +4128,13 @@
         <v>263471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>346</v>
@@ -4173,13 +4143,13 @@
         <v>375251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4164,13 @@
         <v>5217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4209,13 +4179,13 @@
         <v>5257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4224,13 +4194,13 @@
         <v>10474</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4256,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E6CF43-B94B-4E45-97CC-99C3DB3607A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF79EE4D-2E14-4F5D-B64E-E95E5E682D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{40B652BF-FF8C-43DD-A560-09856F53D3EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86B600BD-C0E4-4A9D-8AAA-3970F6E91692}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -94,7 +94,7 @@
     <t>58,69%</t>
   </si>
   <si>
-    <t>17,04%</t>
+    <t>17,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,7 +115,7 @@
     <t>41,31%</t>
   </si>
   <si>
-    <t>82,96%</t>
+    <t>82,34%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -148,7 +148,7 @@
     <t>94,5%</t>
   </si>
   <si>
-    <t>85,01%</t>
+    <t>85,1%</t>
   </si>
   <si>
     <t>98,27%</t>
@@ -157,7 +157,10 @@
     <t>96,14%</t>
   </si>
   <si>
-    <t>89,56%</t>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -169,13 +172,16 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>14,99%</t>
+    <t>14,9%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>10,44%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -184,37 +190,43 @@
     <t>92,53%</t>
   </si>
   <si>
-    <t>61,58%</t>
+    <t>63,54%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>88,12%</t>
+    <t>88,47%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>88,97%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>38,42%</t>
+    <t>36,46%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>11,88%</t>
+    <t>11,53%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>11,03%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -223,16 +235,16 @@
     <t>87,58%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>80,58%</t>
+    <t>81,94%</t>
   </si>
   <si>
     <t>98,29%</t>
@@ -241,19 +253,19 @@
     <t>91,51%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
   </si>
   <si>
     <t>6,6%</t>
@@ -262,175 +274,175 @@
     <t>1,71%</t>
   </si>
   <si>
-    <t>19,42%</t>
+    <t>18,06%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>90,19%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>5,36%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
     <t>93,64%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,12%</t>
+    <t>93,35%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,82%</t>
+    <t>95,46%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -439,40 +451,40 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,88%</t>
+    <t>6,65%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,34%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,01%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -481,7 +493,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
@@ -529,13 +541,13 @@
     <t>98,63%</t>
   </si>
   <si>
-    <t>92,26%</t>
+    <t>93,04%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,08%</t>
+    <t>93,37%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -544,139 +556,157 @@
     <t>1,37%</t>
   </si>
   <si>
-    <t>7,74%</t>
+    <t>6,96%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,92%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>96,49%</t>
   </si>
   <si>
-    <t>82,55%</t>
+    <t>82,38%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>88,32%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
-    <t>17,45%</t>
+    <t>17,62%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>11,68%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
+    <t>92,21%</t>
+  </si>
+  <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
+    <t>7,79%</t>
+  </si>
+  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,05%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964413FE-6143-4666-B409-323B6CEEA848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985135EB-3604-413B-BB34-5024E4D749B4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1558,7 +1588,7 @@
         <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1588,13 +1618,13 @@
         <v>3030</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1603,13 +1633,13 @@
         <v>3030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1695,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1677,10 +1707,10 @@
         <v>12218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -1692,10 +1722,10 @@
         <v>43987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -1707,13 +1737,13 @@
         <v>56205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1758,13 @@
         <v>986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1743,13 +1773,13 @@
         <v>1783</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1758,13 +1788,13 @@
         <v>2769</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,7 +1850,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1832,13 +1862,13 @@
         <v>23581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -1847,13 +1877,13 @@
         <v>51974</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -1862,13 +1892,13 @@
         <v>75555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1913,13 @@
         <v>3343</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1898,13 +1928,13 @@
         <v>3670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1913,13 +1943,13 @@
         <v>7013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +2017,13 @@
         <v>75190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -2002,13 +2032,13 @@
         <v>169851</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -2017,13 +2047,13 @@
         <v>245042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2068,13 @@
         <v>5383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2053,13 +2083,13 @@
         <v>9351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2068,13 +2098,13 @@
         <v>14733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,7 +2160,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60D4E87-7456-4549-AEDB-F42344418B1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82314E5D-B9EE-4273-B0EB-9C15DF9A7B26}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2168,7 +2198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2278,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -2293,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>21</v>
@@ -2308,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>21</v>
@@ -2332,7 +2362,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2347,7 +2377,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2362,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -2445,10 +2475,10 @@
         <v>37915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2460,10 +2490,10 @@
         <v>57599</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2487,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2496,13 +2526,13 @@
         <v>935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2511,13 +2541,13 @@
         <v>935</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,10 +2615,10 @@
         <v>29203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2603,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>21</v>
@@ -2615,10 +2645,10 @@
         <v>111067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2636,13 +2666,13 @@
         <v>1024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2657,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2666,13 +2696,13 @@
         <v>1024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2758,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2758,7 +2788,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>21</v>
@@ -2773,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>21</v>
@@ -2812,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2827,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2898,7 +2928,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>21</v>
@@ -2910,10 +2940,10 @@
         <v>73371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2925,10 +2955,10 @@
         <v>106753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -2952,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2961,13 +2991,13 @@
         <v>969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2976,13 +3006,13 @@
         <v>969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,10 +3080,10 @@
         <v>111894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3065,10 +3095,10 @@
         <v>248728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3080,13 +3110,13 @@
         <v>360623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3131,13 @@
         <v>1024</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3116,13 +3146,13 @@
         <v>1904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3131,13 +3161,13 @@
         <v>2928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3223,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3FB151-57AD-4ADE-812B-D647212CBA3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C843DF5-6DCE-43A9-92FC-4D2E5BD56C24}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3231,7 +3261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>21</v>
@@ -3356,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>21</v>
@@ -3371,7 +3401,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>21</v>
@@ -3395,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3410,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3425,7 +3455,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3526,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>21</v>
@@ -3511,7 +3541,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -3526,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>21</v>
@@ -3550,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3565,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3580,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -3663,10 +3693,10 @@
         <v>68603</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3678,10 +3708,10 @@
         <v>100041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3705,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3714,13 +3744,13 @@
         <v>954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3729,13 +3759,13 @@
         <v>954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,7 +3821,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3803,10 +3833,10 @@
         <v>28759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3818,10 +3848,10 @@
         <v>54742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3833,13 +3863,13 @@
         <v>83502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3884,13 @@
         <v>1047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3869,13 +3899,13 @@
         <v>2095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3884,13 +3914,13 @@
         <v>3142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,7 +3976,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3958,13 +3988,13 @@
         <v>36292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -3973,10 +4003,10 @@
         <v>88918</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3988,13 +4018,13 @@
         <v>125210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4039,13 @@
         <v>4170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4024,13 +4054,13 @@
         <v>2207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4039,13 +4069,13 @@
         <v>6377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4143,13 @@
         <v>111780</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>239</v>
@@ -4128,28 +4158,28 @@
         <v>263471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>346</v>
       </c>
       <c r="N19" s="7">
-        <v>375251</v>
+        <v>375250</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4194,13 @@
         <v>5217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4179,13 +4209,13 @@
         <v>5257</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4194,13 +4224,13 @@
         <v>10474</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4272,7 @@
         <v>356</v>
       </c>
       <c r="N21" s="7">
-        <v>385725</v>
+        <v>385724</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -4256,7 +4286,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF79EE4D-2E14-4F5D-B64E-E95E5E682D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA16736-373E-45AF-B2E2-C047CE478038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86B600BD-C0E4-4A9D-8AAA-3970F6E91692}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D03832CC-16B3-451D-9455-9CDB67F9E37A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="206">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -67,366 +67,333 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
@@ -499,40 +466,22 @@
     <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -1118,8 +1067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985135EB-3604-413B-BB34-5024E4D749B4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5D3DEF-F6F5-4FC5-817F-C82769ADE323}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1236,10 +1185,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>16046</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1251,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>2728</v>
+        <v>21796</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1263,28 +1212,28 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>39</v>
+      </c>
+      <c r="N4" s="7">
+        <v>37842</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2728</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1293,7 +1242,7 @@
         <v>1054</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
@@ -1311,7 +1260,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -1326,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>25</v>
@@ -1338,108 +1287,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>1054</v>
+        <v>17100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>3595</v>
+        <v>22663</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N6" s="7">
-        <v>4649</v>
+        <v>39763</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>16046</v>
+        <v>23344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>19068</v>
+        <v>52095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>35114</v>
+        <v>75440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1448,43 +1397,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,153 +1442,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>16046</v>
+        <v>23344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I9" s="7">
-        <v>19068</v>
+        <v>55125</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="N9" s="7">
-        <v>35114</v>
+        <v>78470</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>23344</v>
+        <v>12218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
+        <v>46</v>
+      </c>
+      <c r="I10" s="7">
+        <v>43987</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>58</v>
+      </c>
+      <c r="N10" s="7">
+        <v>56205</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="7">
-        <v>52095</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="7">
-        <v>70</v>
-      </c>
-      <c r="N10" s="7">
-        <v>75440</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>3030</v>
+        <v>1783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>3030</v>
+        <v>2769</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,153 +1597,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>23344</v>
+        <v>13204</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="7">
-        <v>55125</v>
+        <v>45770</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="N12" s="7">
-        <v>78470</v>
+        <v>58974</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>12218</v>
+        <v>23581</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>43987</v>
+        <v>51974</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>56205</v>
+        <v>75555</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>986</v>
+        <v>3343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>1783</v>
+        <v>3670</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>2769</v>
+        <v>7013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,153 +1752,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>13204</v>
+        <v>26924</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I15" s="7">
-        <v>45770</v>
+        <v>55644</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="N15" s="7">
-        <v>58974</v>
+        <v>82568</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>23581</v>
+        <v>75190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I16" s="7">
-        <v>51974</v>
+        <v>169851</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="N16" s="7">
-        <v>75555</v>
+        <v>245042</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>3343</v>
+        <v>5383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>3670</v>
+        <v>9351</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>7013</v>
+        <v>14733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,217 +1907,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D18" s="7">
-        <v>26924</v>
+        <v>80573</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="I18" s="7">
-        <v>55644</v>
+        <v>179202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="N18" s="7">
-        <v>82568</v>
+        <v>259775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>76</v>
-      </c>
-      <c r="D19" s="7">
-        <v>75190</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="7">
-        <v>167</v>
-      </c>
-      <c r="I19" s="7">
-        <v>169851</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="7">
-        <v>243</v>
-      </c>
-      <c r="N19" s="7">
-        <v>245042</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5383</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9351</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="7">
-        <v>14</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14733</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>81</v>
-      </c>
-      <c r="D21" s="7">
-        <v>80573</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>176</v>
-      </c>
-      <c r="I21" s="7">
-        <v>179202</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>259775</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2181,8 +1974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82314E5D-B9EE-4273-B0EB-9C15DF9A7B26}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B12F3BE-0C57-4F3C-9FF5-794D30158996}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2198,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2299,55 +2092,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>4844</v>
+        <v>24529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>9448</v>
+        <v>47363</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
+        <v>67</v>
+      </c>
+      <c r="N4" s="7">
+        <v>71891</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14292</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2356,43 +2149,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,153 +2194,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>4844</v>
+        <v>24529</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>9448</v>
+        <v>48298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>14292</v>
+        <v>72826</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>19684</v>
+        <v>29203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>74</v>
+      </c>
+      <c r="I7" s="7">
+        <v>81863</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="7">
+        <v>101</v>
+      </c>
+      <c r="N7" s="7">
+        <v>111067</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7">
-        <v>36</v>
-      </c>
-      <c r="I7" s="7">
-        <v>37915</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="7">
-        <v>54</v>
-      </c>
-      <c r="N7" s="7">
-        <v>57599</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1024</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>935</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>935</v>
+        <v>1024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,123 +2349,123 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>19684</v>
+        <v>30227</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>38850</v>
+        <v>81863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="N9" s="7">
-        <v>58534</v>
+        <v>112091</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>29203</v>
+        <v>24781</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>81863</v>
+        <v>46131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>111067</v>
+        <v>70912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2681,28 +2474,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,108 +2504,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>30227</v>
+        <v>24781</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>81863</v>
+        <v>46131</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="N12" s="7">
-        <v>112091</v>
+        <v>70912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>24781</v>
+        <v>33382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>46131</v>
+        <v>73371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>70912</v>
+        <v>106753</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2821,43 +2614,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,153 +2659,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>24781</v>
+        <v>33382</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>46131</v>
+        <v>74340</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="N15" s="7">
-        <v>70912</v>
+        <v>107722</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>33382</v>
+        <v>111894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>231</v>
+      </c>
+      <c r="I16" s="7">
+        <v>248728</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="7">
-        <v>71</v>
-      </c>
-      <c r="I16" s="7">
-        <v>73371</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>326</v>
+      </c>
+      <c r="N16" s="7">
+        <v>360623</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="7">
-        <v>100</v>
-      </c>
-      <c r="N16" s="7">
-        <v>106753</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>135</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>969</v>
+        <v>1904</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>137</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>969</v>
+        <v>2928</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,217 +2814,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D18" s="7">
-        <v>33382</v>
+        <v>112918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="I18" s="7">
-        <v>74340</v>
+        <v>250632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="N18" s="7">
-        <v>107722</v>
+        <v>363551</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="A19" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="7">
-        <v>111894</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>231</v>
-      </c>
-      <c r="I19" s="7">
-        <v>248728</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>326</v>
-      </c>
-      <c r="N19" s="7">
-        <v>360623</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1024</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1904</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2928</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>96</v>
-      </c>
-      <c r="D21" s="7">
-        <v>112918</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>233</v>
-      </c>
-      <c r="I21" s="7">
-        <v>250632</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>329</v>
-      </c>
-      <c r="N21" s="7">
-        <v>363551</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3244,8 +2881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C843DF5-6DCE-43A9-92FC-4D2E5BD56C24}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEF57E9-EF07-42CA-9A65-4E5B1B4B37B2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3261,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3362,55 +2999,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>3595</v>
+        <v>15290</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>7593</v>
+        <v>51208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>11187</v>
+        <v>66499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3419,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3434,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3449,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,108 +3101,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>3595</v>
+        <v>15290</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>7593</v>
+        <v>51208</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N6" s="7">
-        <v>11187</v>
+        <v>66499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>11696</v>
+        <v>31438</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>43616</v>
+        <v>68603</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N7" s="7">
-        <v>55311</v>
+        <v>100041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3574,43 +3211,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,153 +3256,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7">
-        <v>11696</v>
+        <v>31438</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>43616</v>
+        <v>69557</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="N9" s="7">
-        <v>55311</v>
+        <v>100995</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>31438</v>
+        <v>28759</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>68603</v>
+        <v>54742</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>100041</v>
+        <v>83502</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2095</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3142</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>954</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>954</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,153 +3411,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>31438</v>
+        <v>29806</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>69557</v>
+        <v>56837</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="N12" s="7">
-        <v>100995</v>
+        <v>86644</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>28759</v>
+        <v>36292</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="7">
+        <v>77</v>
+      </c>
+      <c r="I13" s="7">
+        <v>88918</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7">
-        <v>50</v>
-      </c>
-      <c r="I13" s="7">
-        <v>54742</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>112</v>
+      </c>
+      <c r="N13" s="7">
+        <v>125210</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="7">
-        <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>83502</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>1047</v>
+        <v>4170</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>2095</v>
+        <v>2207</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6377</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3142</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,93 +3566,93 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>29806</v>
+        <v>40462</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I15" s="7">
-        <v>56837</v>
+        <v>91125</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="N15" s="7">
-        <v>86644</v>
+        <v>131587</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D16" s="7">
-        <v>36292</v>
+        <v>111780</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>239</v>
+      </c>
+      <c r="I16" s="7">
+        <v>263471</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="7">
-        <v>77</v>
-      </c>
-      <c r="I16" s="7">
-        <v>88918</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M16" s="7">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="N16" s="7">
-        <v>125210</v>
+        <v>375251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>194</v>
@@ -4030,13 +3667,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>4170</v>
+        <v>5217</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>197</v>
@@ -4048,34 +3685,34 @@
         <v>199</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2207</v>
+        <v>5257</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>6377</v>
+        <v>10474</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,217 +3721,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7">
-        <v>40462</v>
+        <v>116997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="I18" s="7">
-        <v>91125</v>
+        <v>268728</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>118</v>
+        <v>356</v>
       </c>
       <c r="N18" s="7">
-        <v>131587</v>
+        <v>385725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>107</v>
-      </c>
-      <c r="D19" s="7">
-        <v>111780</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="7">
-        <v>239</v>
-      </c>
-      <c r="I19" s="7">
-        <v>263471</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>346</v>
-      </c>
-      <c r="N19" s="7">
-        <v>375250</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7">
-        <v>5217</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5257</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="7">
-        <v>10</v>
-      </c>
-      <c r="N20" s="7">
-        <v>10474</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>112</v>
-      </c>
-      <c r="D21" s="7">
-        <v>116997</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>244</v>
-      </c>
-      <c r="I21" s="7">
-        <v>268728</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>356</v>
-      </c>
-      <c r="N21" s="7">
-        <v>385724</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
